--- a/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
@@ -11,6 +11,11 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Distribution_Logic" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="All_Courses_Overview" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,22 +481,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,27 +513,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -572,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +587,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,7 +656,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -668,27 +673,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>CS303 (Tutorial)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -756,12 +761,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -783,27 +788,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -847,7 +852,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -857,7 +862,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -867,7 +872,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -879,12 +884,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -899,7 +904,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -916,7 +921,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -926,12 +931,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -943,27 +948,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -978,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,17 +1041,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS309**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunil C K, Pavan</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1083,32 +1088,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**CS303**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Animesh Roy, Dibyajyothi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1130,32 +1135,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS303**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Animesh Roy, Dibyajyothi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1177,27 +1182,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1224,27 +1229,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**CS309**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Statistics for CS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Sunil C K, Pavan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1271,45 +1276,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total Courses: 5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lectures: 10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Labs: 2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -1326,7 +1378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,17 +1436,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS309**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunil C K, Pavan</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1431,7 +1483,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1441,7 +1493,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1525,7 +1577,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1535,7 +1587,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1572,17 +1624,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**CS309**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Statistics for CS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Sunil C K, Pavan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1619,47 +1671,3930 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/1/2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Total Courses: 5</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Complete: 0</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rate: 0.0%</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lectures: 10</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[WARN] 5 issues</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 3, Elective: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/6 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>57.1%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 57.1%, B: 57.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 41.1/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Krishendu, Girish</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Krishendu, Girish</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Krishendu, Girish</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [C303]</t>
+          <t>CS303 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [C303]</t>
+          <t>CS303 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3701,16 +3701,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>53.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -4007,16 +4007,16 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6.25</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -4347,16 +4347,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>8.75</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C004, C302, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004, C303, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C304, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C305, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004, C305, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004, C104, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C004, C302, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003, C004, C303, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C304, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C004, C305, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004, C305, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004, C102, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004, C104, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [C202]</t>
+          <t>CS303 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6593,7 +6593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7131,7 +7131,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -7333,22 +7333,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7367,12 +7367,12 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -7392,25 +7392,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
@@ -7422,12 +7426,12 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -7447,27 +7451,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -7480,17 +7484,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -7510,27 +7514,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -7543,17 +7547,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -7573,27 +7577,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -7606,17 +7610,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -7636,27 +7640,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -7669,17 +7673,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -7699,25 +7703,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -7726,15 +7734,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -7754,27 +7766,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -7785,15 +7797,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -7813,12 +7829,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -7828,12 +7844,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -7847,12 +7863,12 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -7872,12 +7888,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -7892,7 +7908,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -7906,12 +7922,12 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -7931,27 +7947,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -7969,7 +7985,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -7994,27 +8010,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -8032,7 +8048,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -8057,27 +8073,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -8095,7 +8111,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -8120,27 +8136,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -8158,7 +8174,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -8183,12 +8199,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -8203,7 +8219,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -8214,19 +8230,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -8246,12 +8258,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -8266,7 +8278,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -8277,19 +8289,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -8314,7 +8322,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -8340,19 +8348,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -8377,22 +8381,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -8405,17 +8409,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -8440,22 +8444,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -8468,17 +8472,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -8503,20 +8507,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -8527,17 +8535,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -8557,27 +8565,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -8595,12 +8603,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -8620,27 +8628,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -8653,17 +8661,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -8683,27 +8691,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -8716,17 +8724,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -8746,27 +8754,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -8779,17 +8787,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -8809,27 +8817,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -8847,12 +8855,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -8872,27 +8880,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -8910,12 +8918,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -8935,27 +8943,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -8973,12 +8981,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -8998,12 +9006,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -9029,19 +9037,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9070,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -9092,19 +9096,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -9129,20 +9129,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -9153,17 +9157,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -9183,12 +9187,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -9216,7 +9220,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -9226,7 +9230,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -9246,12 +9250,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -9279,7 +9283,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -9289,7 +9293,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -9309,12 +9313,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -9342,7 +9346,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -9352,7 +9356,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -9372,12 +9376,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -9415,7 +9419,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -9435,12 +9439,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -9478,7 +9482,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -9498,12 +9502,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -9541,7 +9545,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -9561,27 +9565,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -9594,17 +9598,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -9624,27 +9628,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -9657,17 +9661,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -9687,27 +9691,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -9720,17 +9724,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -9750,27 +9754,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -9781,19 +9785,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -9813,27 +9813,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -9844,19 +9844,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -9876,27 +9872,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -9907,19 +9903,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -9934,17 +9926,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -9967,14 +9959,10 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9982,7 +9970,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -9997,17 +9985,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -10030,14 +10018,10 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10045,7 +10029,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -10060,17 +10044,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -10093,14 +10077,10 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10108,7 +10088,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -10123,32 +10103,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -10156,22 +10136,18 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -10186,17 +10162,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -10219,14 +10195,10 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10234,7 +10206,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -10249,17 +10221,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -10282,14 +10254,10 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10297,7 +10265,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -10312,12 +10280,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10341,18 +10309,14 @@
         </is>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10360,7 +10324,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10375,32 +10339,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -10408,22 +10372,18 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10438,17 +10398,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -10471,14 +10431,10 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10486,7 +10442,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -10501,32 +10457,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -10534,22 +10490,18 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -10564,7 +10516,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -10574,7 +10526,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -10597,14 +10549,10 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10612,7 +10560,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -10627,32 +10575,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -10663,19 +10611,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -10690,32 +10634,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -10726,19 +10670,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -10753,17 +10693,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -10801,7 +10741,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -10816,17 +10756,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -10864,7 +10804,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -10879,17 +10819,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -10927,7 +10867,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -10942,17 +10882,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -10990,7 +10930,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -11005,17 +10945,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -11053,7 +10993,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11018,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -11101,10 +11041,14 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>C004</t>
@@ -11112,7 +11056,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -11137,22 +11081,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -11160,18 +11104,18 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -11191,27 +11135,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -11219,18 +11163,18 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -11250,27 +11194,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -11278,18 +11222,22 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -11314,7 +11262,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -11337,10 +11285,14 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>C004</t>
@@ -11348,7 +11300,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -11373,7 +11325,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -11396,10 +11348,14 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>C004</t>
@@ -11407,7 +11363,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -11432,22 +11388,22 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -11455,18 +11411,22 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -11491,7 +11451,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -11514,18 +11474,18 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -11545,27 +11505,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -11573,18 +11533,18 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -11609,7 +11569,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -11632,7 +11592,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -11643,7 +11603,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -11663,12 +11623,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -11691,10 +11651,14 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>C004</t>
@@ -11702,7 +11666,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -11722,27 +11686,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -11753,15 +11717,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -11781,27 +11749,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -11812,15 +11780,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -11840,27 +11812,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -11878,12 +11850,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -11903,27 +11875,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -11936,17 +11908,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -11966,12 +11938,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -11999,7 +11971,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -12009,7 +11981,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -12029,27 +12001,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -12062,17 +12034,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -12092,27 +12064,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -12123,15 +12095,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -12151,27 +12127,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -12182,15 +12158,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -12210,27 +12190,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -12241,15 +12221,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -12274,7 +12258,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -12289,7 +12273,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -12303,12 +12287,12 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -12328,27 +12312,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -12359,19 +12343,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -12391,27 +12371,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -12429,12 +12409,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -12454,12 +12434,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -12497,7 +12477,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -12517,27 +12497,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -12555,12 +12535,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -12580,27 +12560,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -12613,17 +12593,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -12643,27 +12623,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -12681,12 +12661,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -12706,27 +12686,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -12744,12 +12724,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -12769,27 +12749,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -12807,12 +12787,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -12832,12 +12812,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -12875,7 +12855,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -12895,12 +12875,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -12938,7 +12918,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -12963,22 +12943,22 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I104" t="b">
@@ -12991,17 +12971,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -13026,22 +13006,22 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I105" t="b">
@@ -13052,19 +13032,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -13084,27 +13060,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I106" t="b">
@@ -13115,19 +13091,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -13147,12 +13119,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -13162,7 +13134,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -13178,2287 +13150,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>5</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>5</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>5</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>5</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>5</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>5</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>5</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>5</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>5</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>5</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>5</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>5</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>5</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>5</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>5</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>5</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>5</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>5</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>5</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>5</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>5</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>5</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>5</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>5</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>5</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>5</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>5</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>5</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>5</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>5</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>EC365</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,54 +482,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS303 [C004]</t>
+          <t>CS309 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS303 [C004]</t>
+          <t>CS309 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -546,91 +546,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS303 [C203]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS303 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C004]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -642,27 +642,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS309 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L406]</t>
+          <t>CS304 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -674,32 +674,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial) [L406]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS303 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C202]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial) [C203]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [C202]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C101]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C101]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C101]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C101]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2882,12 +2946,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2897,16 +2961,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC368, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2927,31 +2991,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, CS366</t>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2964,51 +3028,6 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -3025,7 +3044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3073,26 +3092,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3108,26 +3127,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3143,26 +3162,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3183,7 +3202,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3213,26 +3232,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3248,26 +3267,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3283,26 +3302,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -3323,7 +3342,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3358,7 +3377,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3393,7 +3412,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3415,111 +3434,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3701,16 +3615,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21.5</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>53.75</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3735,16 +3649,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3769,16 +3683,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -4041,16 +3955,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4075,16 +3989,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4245,16 +4159,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4381,16 +4295,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -4701,16 +4615,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4735,16 +4649,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4825,165 +4739,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C001, C101</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004, C101</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C003, C004</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C004, C101</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4993,14 +4919,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5010,14 +4936,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5027,82 +4953,78 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5112,43 +5034,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5161,7 +5075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5204,54 +5118,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS303 [C004]</t>
+          <t>CS309 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS303 [C004]</t>
+          <t>CS309 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -5268,91 +5182,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS303 [C204]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS303 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C004]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -5364,27 +5278,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS309 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [C004]</t>
+          <t>CS304 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5396,32 +5310,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial) [L407]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS303 (Lab) [C304]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C203]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial) [C204]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C102]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C102]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C102]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C102]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5534,7 +5512,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -5581,41 +5559,41 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L406, C303, C004</t>
+          <t>C202, C101, C203</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>No</t>
@@ -5628,7 +5606,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -5729,92 +5707,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Complete: 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Rate: 0.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>C202, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total Courses: 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Complete: 0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rate: 0.0%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lectures: 12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[WARN] 6 issues</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -5831,7 +5762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5929,7 +5860,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -5976,41 +5907,41 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L407, C304, C004</t>
+          <t>C101, C204, C203</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>No</t>
@@ -6023,7 +5954,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -6124,92 +6055,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Complete: 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Rate: 0.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>C203, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total Courses: 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Complete: 0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rate: 0.0%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lectures: 12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[WARN] 6 issues</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -6226,7 +6110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6284,26 +6168,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Proj+AC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6311,23 +6193,23 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CS304, CS309, CS309 (Tutorial)...</t>
+          <t>MINOR: Cybersecurity, MINOR: VLSI, MINOR: DSAI...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6335,42 +6217,40 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="C3" t="n">
+        <v>120</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Proj+AC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MINOR: Cybersecurity, MINOR: VLSI, MINOR: DSAI...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6378,14 +6258,12 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="C4" t="n">
+        <v>60</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6393,7 +6271,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -6401,7 +6279,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6413,7 +6291,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6421,42 +6299,40 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="C5" t="n">
+        <v>60</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS303 (Lab), CS303, CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6464,18 +6340,16 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="C6" t="n">
+        <v>60</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -6483,102 +6357,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS303, CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6667,6 +6455,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -6689,22 +6482,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -6718,12 +6511,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6748,22 +6546,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -6777,12 +6575,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6807,22 +6610,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -6836,12 +6639,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6866,7 +6674,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -6876,12 +6684,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -6895,12 +6703,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6920,27 +6733,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -6954,12 +6767,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6979,27 +6797,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -7013,12 +6831,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7038,12 +6861,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -7053,16 +6876,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -7072,12 +6895,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7102,7 +6930,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -7112,12 +6940,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -7131,12 +6959,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7156,7 +6989,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -7166,17 +6999,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -7190,12 +7023,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7215,12 +7053,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -7249,12 +7087,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7274,27 +7117,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -7308,12 +7151,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7333,46 +7181,51 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -7392,12 +7245,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -7420,7 +7273,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -7431,7 +7284,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -7451,27 +7309,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -7479,22 +7337,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7514,27 +7373,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -7542,22 +7401,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7577,27 +7437,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -7605,22 +7465,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7640,27 +7501,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -7668,22 +7529,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7703,27 +7565,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -7731,22 +7593,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7766,27 +7629,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -7794,22 +7657,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7829,12 +7693,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -7857,18 +7721,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7888,12 +7757,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -7916,18 +7785,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7947,27 +7821,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -7980,17 +7854,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8010,27 +7889,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -8043,17 +7922,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8073,12 +7957,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -8106,7 +7990,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -8116,7 +8000,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8136,27 +8025,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -8169,17 +8058,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8199,22 +8093,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -8230,15 +8124,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8258,29 +8161,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -8289,15 +8188,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8225,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -8348,15 +8256,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8376,12 +8293,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -8419,7 +8336,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8439,27 +8361,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -8477,12 +8399,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8502,27 +8429,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -8540,12 +8467,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8575,19 +8507,15 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -8603,12 +8531,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8633,22 +8566,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -8661,17 +8594,22 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8696,22 +8634,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -8724,17 +8662,22 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8759,22 +8702,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -8787,17 +8730,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8827,17 +8775,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -8855,12 +8803,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8890,17 +8843,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -8918,12 +8871,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8986,7 +8944,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9011,17 +8974,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -9037,15 +9000,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9065,22 +9037,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -9096,15 +9068,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9124,29 +9105,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -9157,17 +9134,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9197,19 +9179,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -9225,12 +9203,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9260,17 +9243,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -9288,12 +9271,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9323,17 +9311,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -9351,12 +9339,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9381,22 +9374,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -9409,17 +9402,22 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9449,17 +9447,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -9477,12 +9475,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9512,17 +9515,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -9540,12 +9543,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9616,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9638,17 +9651,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -9666,12 +9679,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9701,17 +9719,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -9729,12 +9747,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9759,17 +9782,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -9785,15 +9808,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9808,12 +9840,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9841,18 +9873,23 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9867,17 +9904,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -9900,18 +9937,23 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9936,22 +9978,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -9965,12 +10007,17 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9995,22 +10042,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -10024,12 +10071,17 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10059,17 +10111,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -10083,12 +10135,17 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
           <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10123,7 +10180,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -10142,12 +10199,17 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
           <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10167,27 +10229,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I59" t="b">
@@ -10201,12 +10263,17 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10231,22 +10298,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -10260,12 +10327,17 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10290,26 +10362,26 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -10319,12 +10391,17 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10426,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -10364,7 +10441,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -10378,12 +10455,17 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10403,27 +10485,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I63" t="b">
@@ -10437,12 +10519,17 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10462,12 +10549,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -10477,7 +10564,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -10496,12 +10583,17 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -10521,27 +10613,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -10555,12 +10647,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -10580,12 +10677,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -10600,7 +10697,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -10608,18 +10705,23 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10639,12 +10741,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -10659,7 +10761,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -10667,18 +10769,23 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10698,27 +10805,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -10726,22 +10833,23 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10761,27 +10869,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -10789,22 +10897,23 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10824,27 +10933,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I70" t="b">
@@ -10852,22 +10961,23 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10887,27 +10997,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -10915,22 +11025,23 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10950,27 +11061,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -10978,22 +11089,23 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11013,27 +11125,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -11041,22 +11153,23 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11194,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -11096,7 +11209,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -11107,15 +11220,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11135,12 +11257,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -11155,7 +11277,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -11166,15 +11288,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11194,12 +11325,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -11227,7 +11358,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -11237,7 +11368,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11257,27 +11393,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -11290,17 +11426,22 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11320,27 +11461,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -11353,17 +11494,22 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11383,29 +11529,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="b">
         <v>0</v>
       </c>
@@ -11416,17 +11558,22 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11451,24 +11598,20 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="b">
         <v>0</v>
       </c>
@@ -11477,15 +11620,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11510,7 +11662,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -11525,7 +11677,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -11536,15 +11688,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11564,27 +11725,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -11595,15 +11756,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11623,27 +11793,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -11661,12 +11831,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11696,19 +11871,15 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="b">
         <v>0</v>
       </c>
@@ -11724,12 +11895,17 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11759,17 +11935,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -11787,12 +11963,17 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11855,7 +12036,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11880,22 +12066,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -11908,17 +12094,22 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11948,17 +12139,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -11976,12 +12167,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12011,17 +12207,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -12039,12 +12235,17 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12107,7 +12308,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12137,17 +12343,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -12165,12 +12371,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12200,17 +12411,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -12228,12 +12439,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12258,24 +12474,20 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="b">
         <v>0</v>
       </c>
@@ -12284,15 +12496,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12317,24 +12538,20 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="b">
         <v>0</v>
       </c>
@@ -12343,15 +12560,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12381,17 +12607,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -12409,12 +12635,17 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12477,7 +12708,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12507,17 +12743,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -12535,12 +12771,17 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12565,22 +12806,22 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -12593,17 +12834,22 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12633,17 +12879,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -12661,12 +12907,17 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12696,17 +12947,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -12724,12 +12975,17 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12759,17 +13015,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -12787,12 +13043,17 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12855,7 +13116,12 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12885,19 +13151,15 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="b">
         <v>0</v>
       </c>
@@ -12913,252 +13175,17 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>5</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
           <t>EC365</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>5</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>5</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>5</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13173,7 +13200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13412,7 +13439,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -13469,7 +13496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -13518,63 +13545,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -13654,7 +13624,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -13675,11 +13645,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 3, Elective: 3</t>
+          <t>Core: 3, Elective: 2</t>
         </is>
       </c>
     </row>
@@ -13701,7 +13671,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/6 courses fully compliant</t>
+          <t>0/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -13718,12 +13688,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>5/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 31.2%</t>
         </is>
       </c>
     </row>
@@ -13740,12 +13710,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 57.1%, B: 57.1%</t>
+          <t>A: 60.0%, B: 60.0%</t>
         </is>
       </c>
     </row>
@@ -13767,7 +13737,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 41.1/100</t>
+          <t>Score: 42.0/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
@@ -4513,16 +4513,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4649,16 +4649,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C002, C101</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C001, C003, C004</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C003, C101</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002, C003</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C101</t>
+          <t>C001, C004, C101</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>C003, C101</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C002, C101</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C001, C003, C004</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C003, C101</t>
         </is>
       </c>
     </row>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L407]</t>
+          <t>CS303 (Lab) [L403]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L407]</t>
+          <t>CS303 (Lab) [L403]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -7899,12 +7899,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -7967,19 +7967,15 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="b">
         <v>0</v>
       </c>
@@ -7995,7 +7991,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -8103,17 +8099,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -8131,7 +8127,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -8171,15 +8167,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -8303,19 +8303,15 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -8331,7 +8327,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -8371,12 +8367,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8399,7 +8395,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -8444,7 +8440,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8467,7 +8463,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -8507,15 +8503,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -8571,12 +8571,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -8644,14 +8644,10 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="b">
         <v>0</v>
       </c>
@@ -8667,7 +8663,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -8803,7 +8799,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -8843,12 +8839,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8871,7 +8867,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -8911,19 +8907,15 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -8939,7 +8931,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -9047,17 +9039,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -9075,7 +9067,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -9115,15 +9107,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -9139,7 +9135,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -9179,15 +9175,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -9243,12 +9243,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -9316,14 +9316,10 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="b">
         <v>0</v>
       </c>
@@ -9339,7 +9335,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -9475,7 +9471,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -9515,12 +9511,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -9543,7 +9539,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -9583,19 +9579,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -9611,7 +9603,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -9719,17 +9711,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -9747,7 +9739,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -9787,12 +9779,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -9815,7 +9807,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -10583,7 +10575,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -10647,7 +10639,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -11227,7 +11219,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -11267,17 +11259,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -11295,7 +11287,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -11335,17 +11327,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -11363,7 +11355,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -11408,7 +11400,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -11431,7 +11423,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -11479,11 +11471,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="b">
         <v>0</v>
       </c>
@@ -11499,7 +11487,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -11539,15 +11527,19 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I79" t="b">
         <v>0</v>
       </c>
@@ -11563,7 +11555,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -11603,15 +11595,19 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I80" t="b">
         <v>0</v>
       </c>
@@ -11627,7 +11623,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -11667,17 +11663,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -11695,7 +11691,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -11735,17 +11731,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -11763,7 +11759,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -11808,7 +11804,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -11831,7 +11827,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -11871,15 +11867,19 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I84" t="b">
         <v>0</v>
       </c>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -11935,17 +11935,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -12003,17 +12003,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -12207,17 +12207,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -12235,7 +12235,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -12275,17 +12275,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -12303,7 +12303,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -12419,11 +12419,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="b">
         <v>0</v>
       </c>
@@ -12439,7 +12435,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -12479,15 +12475,19 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I93" t="b">
         <v>0</v>
       </c>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -12543,15 +12543,19 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I94" t="b">
         <v>0</v>
       </c>
@@ -12567,7 +12571,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -12607,17 +12611,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -12635,7 +12639,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -12675,17 +12679,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -12703,7 +12707,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -12748,7 +12752,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -12771,7 +12775,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -12839,7 +12843,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -12879,17 +12883,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -12907,7 +12911,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -12952,7 +12956,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -12975,7 +12979,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -13023,11 +13027,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="b">
         <v>0</v>
       </c>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -13083,17 +13083,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -13156,10 +13156,14 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I103" t="b">
         <v>0</v>
       </c>
@@ -13175,7 +13179,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
@@ -487,27 +487,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -519,22 +519,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C101]</t>
+          <t>CS309 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C101]</t>
+          <t>CS309 [C302]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C205]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C203]</t>
+          <t>CS303 [C104]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS303 [C101]</t>
+          <t>CS303 [C102]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C101]</t>
+          <t>CS309 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [C004]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -711,17 +711,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C203]</t>
+          <t>CS303 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [C202]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -743,27 +743,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2946,31 +2946,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, CS366</t>
+          <t>EC368, DE351, EC358</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2991,43 +2991,88 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Mon</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>A &amp; B (Common)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -3044,7 +3089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3092,26 +3137,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3127,26 +3172,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3162,26 +3207,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3202,7 +3247,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3232,26 +3277,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3267,26 +3312,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3302,26 +3347,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -3342,7 +3387,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3377,7 +3422,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3412,7 +3457,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3434,6 +3479,111 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3517,16 +3667,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>78.75</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -3615,16 +3765,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3649,16 +3799,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>6.8</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>85</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3683,16 +3833,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>37.5</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3751,16 +3901,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3853,16 +4003,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3921,16 +4071,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3955,16 +4105,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3989,16 +4139,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4023,16 +4173,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4091,16 +4241,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4159,16 +4309,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4227,16 +4377,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4261,16 +4411,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4295,16 +4445,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -4329,16 +4479,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4513,16 +4663,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4739,177 +4889,165 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C002, C101</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C001, C003, C004</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C001, C003, C101</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C001, C002, C003</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C004, C101</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4919,14 +5057,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C101</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4936,14 +5074,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C003, C004</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4953,78 +5091,82 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001, C003, C101</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C101, C203</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5034,35 +5176,43 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004, C205</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C302, C303</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5123,27 +5273,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5310,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C101]</t>
+          <t>CS309 [C303]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5170,7 +5320,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C302]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5187,12 +5337,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C204]</t>
+          <t>CS303 [C202]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS303 [C101]</t>
+          <t>CS303 [C001]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5251,7 +5401,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5283,12 +5433,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C101]</t>
+          <t>CS309 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5320,7 +5470,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L403]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5347,17 +5497,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C204]</t>
+          <t>CS303 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L403]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5379,27 +5529,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5512,7 +5662,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004, C302, C304</t>
         </is>
       </c>
     </row>
@@ -5559,34 +5709,34 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C202, C101, C203</t>
+          <t>C102, C104, C204, L207</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5606,7 +5756,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
@@ -5707,45 +5857,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**CS304**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C004, C204, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total Courses: 5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lectures: 10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Labs: 2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -5762,7 +5959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5860,7 +6057,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303, C004, C305</t>
         </is>
       </c>
     </row>
@@ -5907,34 +6104,34 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C101, C204, C203</t>
+          <t>C001, L207, C205, C202</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5954,7 +6151,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
@@ -6055,45 +6252,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**CS304**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C004, C302, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total Courses: 5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total Courses: 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lectures: 10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lectures: 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Labs: 2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -6110,7 +6354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6168,24 +6412,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Proj+AC</t>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6193,64 +6434,66 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MINOR: VLSI, MINOR: DSAI...</t>
+          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>120</v>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Proj+AC</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MINOR: VLSI, MINOR: DSAI...</t>
+          <t>CS309, CS304</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6258,12 +6501,14 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>60</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Proj</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6279,7 +6524,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6291,7 +6536,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6299,74 +6544,379 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>60</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Proj</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS303 (Lab), CS303, CS303 (Tutorial)</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>C204</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Proj</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CS304, CS303 (Tutorial), CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CS309, CS304</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CS303, CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.4</t>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6417,47 +6967,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -6487,42 +7047,46 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6551,42 +7115,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>CS309</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6615,42 +7187,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>CS303</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6674,47 +7254,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6738,47 +7326,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6802,47 +7398,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6861,52 +7461,56 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6930,47 +7534,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6994,47 +7606,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7058,47 +7678,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7122,47 +7750,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7186,47 +7822,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7245,52 +7885,56 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7309,52 +7953,60 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7378,47 +8030,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7442,47 +8102,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7501,52 +8165,56 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7570,47 +8238,55 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7639,42 +8315,46 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>MINOR: Cybersecurity</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7703,42 +8383,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7767,42 +8451,46 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7831,46 +8519,50 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7899,46 +8591,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7967,42 +8667,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -8031,46 +8743,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8099,46 +8819,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8167,46 +8895,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8235,46 +8971,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8303,42 +9047,50 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8367,46 +9119,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -8435,46 +9195,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8503,46 +9271,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8571,46 +9347,50 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8639,42 +9419,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -8703,46 +9495,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -8771,46 +9571,50 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8839,46 +9643,54 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -8907,42 +9719,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -8971,46 +9795,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9039,46 +9871,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -9107,46 +9947,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9175,46 +10023,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9243,46 +10099,50 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9311,42 +10171,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9375,46 +10247,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9443,46 +10323,50 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9511,46 +10395,54 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -9579,42 +10471,54 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -9643,46 +10547,54 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M50" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -9711,46 +10623,54 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -9779,46 +10699,54 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -9847,42 +10775,46 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -9911,42 +10843,50 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
         <is>
           <t>C101</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>CS309</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -9975,42 +10915,50 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>CS303</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10034,47 +10982,55 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10098,47 +11054,55 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10162,47 +11126,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10221,52 +11189,56 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -10290,47 +11262,55 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -10354,47 +11334,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -10418,47 +11402,55 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10482,47 +11474,55 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -10546,47 +11546,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -10605,52 +11609,56 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -10669,52 +11677,60 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -10738,47 +11754,55 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -10802,47 +11826,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -10861,52 +11889,56 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -10930,47 +11962,55 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -10999,42 +12039,46 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>MINOR: Cybersecurity</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11063,42 +12107,46 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -11127,42 +12175,46 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -11191,46 +12243,54 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>C104</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -11259,46 +12319,54 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M75" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -11327,46 +12395,54 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -11395,46 +12471,54 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -11463,42 +12547,54 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -11527,46 +12623,54 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M79" t="inlineStr">
         <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -11595,46 +12699,54 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M80" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -11663,46 +12775,54 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M81" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -11731,46 +12851,54 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -11799,46 +12927,54 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -11867,46 +13003,54 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -11935,46 +13079,54 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M85" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -12003,46 +13155,54 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -12071,46 +13231,54 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M87" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -12139,46 +13307,54 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>C104</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="N88" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -12207,46 +13383,54 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M89" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -12275,46 +13459,54 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M90" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -12343,46 +13535,54 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M91" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -12411,42 +13611,54 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -12475,46 +13687,54 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M93" t="inlineStr">
         <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -12543,46 +13763,54 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
           <t>CS463</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -12611,46 +13839,54 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
           <t>CS308</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -12679,46 +13915,54 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
           <t>DS301</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -12747,46 +13991,54 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
           <t>CS366</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -12815,46 +14067,54 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>C104</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -12883,46 +14143,54 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
           <t>EC355</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P99" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -12951,46 +14219,54 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
           <t>EC364</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -13019,42 +14295,54 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
           <t>CS352</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -13083,46 +14371,54 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -13151,46 +14447,54 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M103" t="inlineStr">
         <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13204,7 +14508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13443,7 +14747,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -13500,55 +14804,112 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>3-0-0-0-3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>3/0/0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2/1/0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2/1/0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[FAIL]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[WARN] PARTIAL</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -13628,7 +14989,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 12:24</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -13649,11 +15010,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 3, Elective: 2</t>
+          <t>Core: 3, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -13675,7 +15036,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/5 courses fully compliant</t>
+          <t>0/6 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -13692,12 +15053,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5/16</t>
+          <t>12/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 31.2%</t>
+          <t>Utilization: 33.3%</t>
         </is>
       </c>
     </row>
@@ -13714,12 +15075,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 60.0%, B: 60.0%</t>
+          <t>A: 66.7%, B: 66.7%</t>
         </is>
       </c>
     </row>
@@ -13741,7 +15102,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 42.0/100</t>
+          <t>Score: 44.0/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C302]</t>
+          <t>CS309 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C205]</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C104]</t>
+          <t>CS303 [C305]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS303 [C102]</t>
+          <t>CS303 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3667,16 +3667,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31.5</v>
+        <v>16.5</v>
       </c>
       <c r="E2" t="n">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>78.75</v>
+        <v>41.25</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -3731,16 +3731,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3765,16 +3765,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3799,16 +3799,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3969,16 +3969,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -4003,16 +4003,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.75</v>
+        <v>5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4377,16 +4377,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4411,16 +4411,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4479,16 +4479,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4629,16 +4629,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C101, C104</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C202, C204</t>
         </is>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C101, C104</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C102, C203</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C202, C204</t>
         </is>
       </c>
     </row>
@@ -5273,27 +5273,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C303]</t>
+          <t>CS309 [L402]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C302]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C202]</t>
+          <t>CS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5529,27 +5529,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C302, C304</t>
+          <t>C004, C304, C003</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C102, C104, C204, L207</t>
+          <t>C305, L106, C204, C101</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Krishendu, Girish</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C204, C205</t>
+          <t>C004, C104, C204</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C303, C004, C305</t>
+          <t>C004, C305, L402</t>
         </is>
       </c>
     </row>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C001, L207, C205, C202</t>
+          <t>C205, C001, L106, C101</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Krishendu, Girish</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C302, C205</t>
+          <t>C004, C205, C202</t>
         </is>
       </c>
     </row>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
+          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6450,93 +6450,93 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS309, CS304</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304, CS309</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6555,11 +6555,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -6572,14 +6572,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6622,7 +6622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6637,35 +6637,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6684,31 +6684,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS304, CS303 (Tutorial), CS304 (Tutorial)</t>
+          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS309, CS304</t>
+          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6794,7 +6794,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -6813,54 +6813,54 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS303, CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -6868,42 +6868,42 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -6911,12 +6911,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -7216,7 +7216,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7568,7 +7568,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7640,7 +7640,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7712,7 +7712,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7784,7 +7784,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -8272,7 +8272,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -8596,12 +8596,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -8976,17 +8976,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -9052,15 +9052,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -9076,7 +9080,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -9124,12 +9128,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -9152,7 +9156,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -9210,7 +9214,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -9228,7 +9232,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -9276,17 +9280,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -9304,7 +9308,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -9352,15 +9356,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -9376,7 +9384,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -9424,12 +9432,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -9452,7 +9460,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -9510,7 +9518,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -9528,7 +9536,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -9648,12 +9656,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9676,7 +9684,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9734,7 +9742,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9752,7 +9760,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -9810,7 +9818,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9828,7 +9836,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -10028,17 +10036,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -10056,7 +10064,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -10104,15 +10112,19 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -10128,7 +10140,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -10176,12 +10188,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10204,7 +10216,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -10262,7 +10274,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -10280,7 +10292,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -10400,12 +10412,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10428,7 +10440,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -10486,7 +10498,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10504,7 +10516,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -10562,7 +10574,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10580,7 +10592,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -10780,15 +10792,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -10800,7 +10816,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -10944,7 +10960,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -11136,15 +11152,19 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
@@ -11156,7 +11176,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -11204,15 +11224,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -11224,7 +11248,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -11277,7 +11301,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -11296,7 +11320,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -11436,7 +11460,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -11508,7 +11532,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -11556,15 +11580,19 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -11576,7 +11604,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -11624,15 +11652,19 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -11644,7 +11676,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -11836,15 +11868,19 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
@@ -11856,7 +11892,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -11904,15 +11940,19 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -11924,7 +11964,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -11996,7 +12036,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -12044,15 +12084,19 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
@@ -12064,7 +12108,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -12112,15 +12156,19 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
@@ -12132,7 +12180,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -12180,15 +12228,19 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
@@ -12200,7 +12252,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -12248,12 +12300,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -12276,7 +12328,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -12352,7 +12404,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -12410,7 +12462,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12428,7 +12480,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -12486,7 +12538,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12504,7 +12556,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -12704,17 +12756,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12732,7 +12784,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -12780,19 +12832,15 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="b">
         <v>0</v>
       </c>
@@ -12808,7 +12856,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -12856,12 +12904,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -12884,7 +12932,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -12942,7 +12990,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12960,7 +13008,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -13008,17 +13056,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -13036,7 +13084,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -13084,19 +13132,15 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="b">
         <v>0</v>
       </c>
@@ -13112,7 +13156,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -13160,12 +13204,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -13188,7 +13232,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -13246,7 +13290,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -13264,7 +13308,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -13312,12 +13356,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -13340,7 +13384,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -13416,7 +13460,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -13474,7 +13518,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -13492,7 +13536,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -13550,7 +13594,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -13568,7 +13612,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -13768,17 +13812,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -13796,7 +13840,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -13844,19 +13888,15 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -13872,7 +13912,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -13920,12 +13960,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -13948,7 +13988,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -14006,7 +14046,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -14024,7 +14064,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -14072,12 +14112,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -14100,7 +14140,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -14176,7 +14216,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -14234,7 +14274,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J100" t="b">
@@ -14252,7 +14292,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -14310,7 +14350,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -14328,7 +14368,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -14989,7 +15029,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_post_mid_timetable.xlsx
@@ -487,27 +487,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -519,22 +519,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>CS309 [C304]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C003]</t>
+          <t>CS309 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C304]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C104]</t>
+          <t>CS304 [C304]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C305]</t>
+          <t>CS303 [C304]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L106]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L106]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -743,27 +743,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -3667,16 +3667,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>41.25</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -3731,16 +3731,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3765,16 +3765,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3799,16 +3799,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3901,16 +3901,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -4071,16 +4071,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -4445,16 +4445,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>17.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -4479,16 +4479,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.25</v>
+        <v>17.5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4629,16 +4629,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C101, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C202, C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C102, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C202, C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004, C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C302, C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -5273,27 +5273,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -5305,22 +5305,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C101]</t>
+          <t>CS309 [C305]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [L402]</t>
+          <t>CS309 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C305]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS304 [C305]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C101]</t>
+          <t>CS303 [C305]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5529,27 +5529,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C304, C003</t>
+          <t>C101, C304</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C305, L106, C204, C101</t>
+          <t>C101, C204, L207, C304</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C104, C204</t>
+          <t>C204, C304</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C305, L402</t>
+          <t>C305, C001</t>
         </is>
       </c>
     </row>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C205, C001, L106, C101</t>
+          <t>C205, C305, L207, C001</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C205, C202</t>
+          <t>C205, C305</t>
         </is>
       </c>
     </row>
@@ -6354,7 +6354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6426,41 +6426,41 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
+          <t>CS309, CS303</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6477,42 +6477,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS309, CS303</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -6520,23 +6520,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS304, CS309</t>
+          <t>MINOR: Generative Ai, MINOR: Design, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6559,15 +6559,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304 (Tutorial), CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6579,7 +6579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6594,35 +6594,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 (Tutorial), CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6637,35 +6637,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304, CS309, CS309 (Tutorial)...</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6684,239 +6684,67 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
+          <t>CS304, CS309, CS309 (Tutorial)...</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial), CS304 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CS303, CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
           <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -7052,15 +6880,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -7072,7 +6904,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -7120,17 +6952,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -7144,7 +6976,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -7216,7 +7048,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -7408,15 +7240,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -7428,7 +7264,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7476,15 +7312,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -7496,7 +7336,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7544,12 +7384,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7568,7 +7408,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7712,7 +7552,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7784,7 +7624,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7832,15 +7672,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -7852,7 +7696,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7900,15 +7744,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -7920,7 +7768,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -7968,17 +7816,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7992,7 +7840,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -8112,15 +7960,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -8132,7 +7984,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -8180,15 +8032,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -8200,7 +8056,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -8258,7 +8114,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -8272,7 +8128,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -8320,15 +8176,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -8340,7 +8200,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -8388,15 +8248,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -8408,7 +8272,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -8456,15 +8320,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -8476,7 +8344,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -8524,15 +8392,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -8548,7 +8420,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8624,7 +8496,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8682,7 +8554,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8700,7 +8572,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -8758,7 +8630,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8776,7 +8648,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -8824,17 +8696,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8852,7 +8724,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8910,7 +8782,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8928,7 +8800,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -9004,7 +8876,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -9080,7 +8952,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -9156,7 +9028,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -9214,7 +9086,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -9232,7 +9104,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -9308,7 +9180,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -9384,7 +9256,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -9460,7 +9332,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -9518,7 +9390,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -9536,7 +9408,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -9584,15 +9456,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -9608,7 +9484,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -9684,7 +9560,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9742,7 +9618,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9760,7 +9636,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -9818,7 +9694,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9836,7 +9712,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -9884,17 +9760,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9912,7 +9788,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -9970,7 +9846,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9988,7 +9864,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -10064,7 +9940,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -10140,7 +10016,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -10216,7 +10092,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -10274,7 +10150,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -10292,7 +10168,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -10340,15 +10216,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -10364,7 +10244,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -10440,7 +10320,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -10498,7 +10378,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10516,7 +10396,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -10574,7 +10454,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10592,7 +10472,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -10640,17 +10520,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10668,7 +10548,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -10726,7 +10606,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10744,7 +10624,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -10792,17 +10672,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10816,7 +10696,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -10874,7 +10754,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10888,7 +10768,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -10946,7 +10826,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10960,7 +10840,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -11152,17 +11032,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -11176,7 +11056,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -11224,17 +11104,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -11248,7 +11128,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -11296,19 +11176,15 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="b">
         <v>0</v>
       </c>
@@ -11320,7 +11196,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -11460,7 +11336,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -11532,7 +11408,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -11580,17 +11456,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11604,7 +11480,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -11652,17 +11528,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11676,7 +11552,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -11734,7 +11610,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11748,7 +11624,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -11868,17 +11744,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11892,7 +11768,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -11940,17 +11816,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11964,7 +11840,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -12022,7 +11898,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -12036,7 +11912,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -12084,17 +11960,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -12108,7 +11984,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -12156,17 +12032,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -12180,7 +12056,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -12228,17 +12104,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -12252,7 +12128,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -12300,12 +12176,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -12328,7 +12204,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -12404,7 +12280,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -12480,7 +12356,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -12632,7 +12508,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -12708,7 +12584,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -12756,17 +12632,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12784,7 +12660,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -12832,15 +12708,19 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
@@ -12856,7 +12736,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -12904,12 +12784,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -12932,7 +12812,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -13008,7 +12888,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -13056,17 +12936,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -13084,7 +12964,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -13132,15 +13012,19 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
@@ -13156,7 +13040,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -13204,12 +13088,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -13232,7 +13116,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -13308,7 +13192,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -13356,12 +13240,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -13384,7 +13268,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -13460,7 +13344,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -13536,7 +13420,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -13688,7 +13572,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -13764,7 +13648,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -13812,17 +13696,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -13840,7 +13724,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -13888,15 +13772,19 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -13912,7 +13800,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -13960,12 +13848,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -13988,7 +13876,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -14064,7 +13952,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -14112,12 +14000,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -14140,7 +14028,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -14216,7 +14104,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -14292,7 +14180,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -14444,7 +14332,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -14520,7 +14408,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -15029,7 +14917,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -15093,12 +14981,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 33.3%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
